--- a/data files/Purchase Order/KRISHNA SURGICALS.xlsx
+++ b/data files/Purchase Order/KRISHNA SURGICALS.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA02C02-F44C-407A-B78C-0A4DC08605FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master" sheetId="2" r:id="rId1"/>
@@ -265,7 +266,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -453,7 +454,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -480,11 +481,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -500,9 +500,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -531,14 +528,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,6 +540,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -570,7 +565,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Line 1"/>
+        <xdr:cNvPr id="2" name="Line 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -600,9 +601,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -640,7 +641,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -712,7 +713,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -885,20 +886,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" customWidth="1"/>
     <col min="2" max="2" width="51.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11" style="16" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="18"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.4">
@@ -907,45 +908,45 @@
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="14"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="23" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="25" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="15"/>
-      <c r="D2" s="23"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="14"/>
-      <c r="D3" s="22"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="14"/>
-      <c r="D4" s="22"/>
+      <c r="D4" s="21"/>
       <c r="E4" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="14"/>
-      <c r="D5" s="22"/>
+      <c r="D5" s="21"/>
       <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
@@ -954,8 +955,8 @@
       <c r="A6" s="9"/>
       <c r="B6" s="3"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="19"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="18"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -965,14 +966,14 @@
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="18"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="8"/>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="20"/>
+      <c r="E8" s="19"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
@@ -981,665 +982,679 @@
       <c r="B9" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="29"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="31"/>
-      <c r="B11" s="31" t="s">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="31"/>
-      <c r="B12" s="31" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34" t="s">
+      <c r="C12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="31"/>
-      <c r="B14" s="31" t="s">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="31"/>
-      <c r="B15" s="31" t="s">
+      <c r="A15" s="29"/>
+      <c r="B15" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33">
+      <c r="C15" s="30"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="29"/>
+      <c r="B20" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="31">
         <v>20</v>
       </c>
-      <c r="E15" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="31"/>
-      <c r="B16" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31" t="s">
+      <c r="A21" s="29"/>
+      <c r="B21" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34" t="s">
+      <c r="C21" s="30"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31" t="s">
+      <c r="A22" s="29"/>
+      <c r="B22" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C22" s="32"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31" t="s">
+      <c r="A24" s="29"/>
+      <c r="B24" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34" t="s">
+      <c r="C24" s="30"/>
+      <c r="D24" s="31">
+        <v>10</v>
+      </c>
+      <c r="E24" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31" t="s">
+      <c r="A25" s="29"/>
+      <c r="B25" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34" t="s">
+      <c r="C25" s="30"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31" t="s">
+      <c r="A26" s="29"/>
+      <c r="B26" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34" t="s">
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31" t="s">
+      <c r="A27" s="29"/>
+      <c r="B27" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34" t="s">
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
-      <c r="C28" s="32"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="32"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31" t="s">
+      <c r="A29" s="29"/>
+      <c r="B29" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34" t="s">
+      <c r="C29" s="30"/>
+      <c r="D29" s="31">
+        <v>60</v>
+      </c>
+      <c r="E29" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31" t="s">
+      <c r="A30" s="29"/>
+      <c r="B30" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34" t="s">
+      <c r="C30" s="30"/>
+      <c r="D30" s="31">
+        <v>40</v>
+      </c>
+      <c r="E30" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="31" t="s">
+      <c r="A31" s="29"/>
+      <c r="B31" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34" t="s">
+      <c r="C31" s="30"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="31" t="s">
+      <c r="A32" s="29"/>
+      <c r="B32" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34" t="s">
+      <c r="C32" s="30"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="31" t="s">
+      <c r="A33" s="29"/>
+      <c r="B33" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34" t="s">
+      <c r="C33" s="30"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="31"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="32"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="31" t="s">
+      <c r="A35" s="29"/>
+      <c r="B35" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34" t="s">
+      <c r="C35" s="30"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31" t="s">
+      <c r="A36" s="29"/>
+      <c r="B36" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34" t="s">
+      <c r="C36" s="30"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31" t="s">
+      <c r="A37" s="29"/>
+      <c r="B37" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="34" t="s">
+      <c r="C37" s="30"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31" t="s">
+      <c r="A38" s="29"/>
+      <c r="B38" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="34" t="s">
+      <c r="C38" s="30"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="31"/>
-      <c r="C39" s="32"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="34"/>
+      <c r="A39" s="29"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="32"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31" t="s">
+      <c r="A40" s="29"/>
+      <c r="B40" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="32"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="34" t="s">
+      <c r="C40" s="30"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31" t="s">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="32"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="34" t="s">
+      <c r="C41" s="30"/>
+      <c r="D41" s="31">
+        <v>4</v>
+      </c>
+      <c r="E41" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31" t="s">
+      <c r="A42" s="29"/>
+      <c r="B42" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="32"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="34" t="s">
+      <c r="C42" s="30"/>
+      <c r="D42" s="31">
+        <v>1</v>
+      </c>
+      <c r="E42" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31" t="s">
+      <c r="A43" s="29"/>
+      <c r="B43" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33">
+      <c r="C43" s="30"/>
+      <c r="D43" s="31">
         <v>10</v>
       </c>
-      <c r="E43" s="34" t="s">
+      <c r="E43" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="32"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="34"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="30"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="32"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31" t="s">
+      <c r="A45" s="29"/>
+      <c r="B45" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="34" t="s">
+      <c r="C45" s="33"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31" t="s">
+      <c r="A46" s="29"/>
+      <c r="B46" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C46" s="32"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="34" t="s">
+      <c r="C46" s="30"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31" t="s">
+      <c r="A47" s="29"/>
+      <c r="B47" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C47" s="32"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="34" t="s">
+      <c r="C47" s="30"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31" t="s">
+      <c r="A48" s="29"/>
+      <c r="B48" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="32"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="34" t="s">
+      <c r="C48" s="30"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31" t="s">
+      <c r="A49" s="29"/>
+      <c r="B49" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="34" t="s">
+      <c r="C49" s="33"/>
+      <c r="D49" s="31"/>
+      <c r="E49" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31" t="s">
+      <c r="A50" s="29"/>
+      <c r="B50" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C50" s="32"/>
-      <c r="D50" s="33"/>
-      <c r="E50" s="34" t="s">
+      <c r="C50" s="30"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="36"/>
-      <c r="B51" s="36"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="38"/>
-      <c r="E51" s="39"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="34"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="36"/>
-      <c r="B52" s="31" t="s">
+      <c r="A52" s="34"/>
+      <c r="B52" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="32"/>
-      <c r="D52" s="33"/>
-      <c r="E52" s="34" t="s">
+      <c r="C52" s="30"/>
+      <c r="D52" s="31"/>
+      <c r="E52" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="36"/>
-      <c r="B53" s="31" t="s">
+      <c r="A53" s="34"/>
+      <c r="B53" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C53" s="37"/>
-      <c r="D53" s="33"/>
-      <c r="E53" s="34" t="s">
+      <c r="C53" s="34"/>
+      <c r="D53" s="31">
+        <v>10</v>
+      </c>
+      <c r="E53" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="36"/>
-      <c r="B54" s="31" t="s">
+      <c r="A54" s="34"/>
+      <c r="B54" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="37"/>
-      <c r="D54" s="33"/>
-      <c r="E54" s="34" t="s">
+      <c r="C54" s="34"/>
+      <c r="D54" s="31">
+        <v>10</v>
+      </c>
+      <c r="E54" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="36"/>
-      <c r="B55" s="31" t="s">
+      <c r="A55" s="34"/>
+      <c r="B55" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C55" s="37"/>
-      <c r="D55" s="33">
-        <v>10</v>
-      </c>
-      <c r="E55" s="34" t="s">
+      <c r="C55" s="34"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="36"/>
-      <c r="B56" s="31" t="s">
+      <c r="A56" s="34"/>
+      <c r="B56" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C56" s="37"/>
-      <c r="D56" s="33"/>
-      <c r="E56" s="34" t="s">
+      <c r="C56" s="34"/>
+      <c r="D56" s="31"/>
+      <c r="E56" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="36"/>
-      <c r="B57" s="36"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="38"/>
-      <c r="E57" s="39"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="34"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="36"/>
-      <c r="B58" s="31" t="s">
+      <c r="A58" s="34"/>
+      <c r="B58" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="C58" s="37"/>
-      <c r="D58" s="38"/>
-      <c r="E58" s="34" t="s">
+      <c r="C58" s="34"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="36"/>
-      <c r="B59" s="31" t="s">
+      <c r="A59" s="34"/>
+      <c r="B59" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C59" s="37"/>
-      <c r="D59" s="38"/>
-      <c r="E59" s="34" t="s">
+      <c r="C59" s="34"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="36"/>
-      <c r="B60" s="36"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="38"/>
-      <c r="E60" s="39"/>
+      <c r="A60" s="34"/>
+      <c r="B60" s="34"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="36"/>
-      <c r="B61" s="31" t="s">
+      <c r="A61" s="34"/>
+      <c r="B61" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C61" s="37"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="34" t="s">
+      <c r="C61" s="34"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="36"/>
-      <c r="B62" s="31" t="s">
+      <c r="A62" s="34"/>
+      <c r="B62" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C62" s="37"/>
-      <c r="D62" s="38"/>
-      <c r="E62" s="34" t="s">
+      <c r="C62" s="34"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="36"/>
-      <c r="B63" s="31" t="s">
+      <c r="A63" s="34"/>
+      <c r="B63" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C63" s="37"/>
-      <c r="D63" s="38"/>
-      <c r="E63" s="34" t="s">
+      <c r="C63" s="34"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="36"/>
-      <c r="B64" s="31" t="s">
+      <c r="A64" s="34"/>
+      <c r="B64" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="37"/>
-      <c r="D64" s="38"/>
-      <c r="E64" s="34" t="s">
+      <c r="C64" s="34"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="36"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="39"/>
+      <c r="A65" s="34"/>
+      <c r="B65" s="34"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="36"/>
-      <c r="B66" s="40" t="s">
+      <c r="A66" s="34"/>
+      <c r="B66" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C66" s="37"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="34" t="s">
+      <c r="C66" s="34"/>
+      <c r="D66" s="35">
+        <v>1</v>
+      </c>
+      <c r="E66" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="36"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="38"/>
-      <c r="E67" s="34"/>
+      <c r="A67" s="34"/>
+      <c r="B67" s="29"/>
+      <c r="C67" s="34"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="32"/>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="36"/>
-      <c r="B68" s="40" t="s">
+      <c r="A68" s="34"/>
+      <c r="B68" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C68" s="37"/>
-      <c r="D68" s="38"/>
-      <c r="E68" s="34" t="s">
+      <c r="C68" s="34"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="36"/>
-      <c r="B69" s="40" t="s">
+      <c r="A69" s="34"/>
+      <c r="B69" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C69" s="37"/>
-      <c r="D69" s="38"/>
-      <c r="E69" s="34" t="s">
+      <c r="C69" s="34"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="36"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="34"/>
+      <c r="A70" s="34"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="34"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="32"/>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="36"/>
-      <c r="B71" s="31" t="s">
+      <c r="A71" s="34"/>
+      <c r="B71" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C71" s="37"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="34" t="s">
+      <c r="C71" s="34"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="36"/>
-      <c r="B72" s="31" t="s">
+      <c r="A72" s="34"/>
+      <c r="B72" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C72" s="37"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="34" t="s">
+      <c r="C72" s="34"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="32" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="36"/>
-      <c r="B73" s="31" t="s">
+      <c r="A73" s="34"/>
+      <c r="B73" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C73" s="37"/>
-      <c r="D73" s="38"/>
-      <c r="E73" s="34" t="s">
+      <c r="C73" s="34"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="32" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1651,7 +1666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
